--- a/Documentation/Working_Documents/Open_Playback_Recorder_BOM.xlsx
+++ b/Documentation/Working_Documents/Open_Playback_Recorder_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 22-10 Open Playback Device/Device-Name-Template/Open-Playback-Recorder/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/Jake/Shared Documents/General/GitHub/Open-Playback-Recorder/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="879" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B192E52D-665D-4D16-904B-7463CE1D24B0}"/>
+  <xr:revisionPtr revIDLastSave="880" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B34B4282-3EB9-4EF7-8911-B5454C2095F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="705" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
   <si>
     <t>Unit Cost</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>PLA</t>
-  </si>
-  <si>
-    <t>Custom Printed Circuit Board (PCB)</t>
   </si>
   <si>
     <t>Tools for Assembly</t>
@@ -600,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -724,39 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -779,9 +743,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
@@ -808,10 +772,6 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -830,7 +790,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -839,8 +799,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1129,33 +1087,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="89.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>0</v>
@@ -1170,12 +1128,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I2" s="24">
         <f>SUM(I5:I24,I31:I39)</f>
@@ -1194,13 +1152,13 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="42"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -1237,8 +1195,8 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>102010268</v>
       </c>
       <c r="B5" t="s">
@@ -1276,8 +1234,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>2130</v>
       </c>
       <c r="B6" t="s">
@@ -1315,11 +1273,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="34">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>3351</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
@@ -1354,12 +1312,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>102010268</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>65</v>
+      <c r="B8" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1370,7 +1328,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="28">
         <v>2.13</v>
       </c>
       <c r="G8" s="20">
@@ -1389,14 +1347,14 @@
         <v>2.13</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>254</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
@@ -1408,7 +1366,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="28">
         <v>10.35</v>
       </c>
       <c r="G9" s="20">
@@ -1430,12 +1388,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <v>5249</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>60</v>
+      <c r="B10" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1446,7 +1404,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="28">
         <v>7.18</v>
       </c>
       <c r="G10" s="20">
@@ -1465,14 +1423,14 @@
         <v>7.18</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>1713</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
@@ -1484,7 +1442,7 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="28">
         <v>10.97</v>
       </c>
       <c r="G11" s="20">
@@ -1506,11 +1464,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
@@ -1522,7 +1480,7 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="28">
         <v>0.76</v>
       </c>
       <c r="G12" s="20">
@@ -1544,10 +1502,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31" t="s">
-        <v>97</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1558,7 +1516,7 @@
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="28">
         <v>11.99</v>
       </c>
       <c r="G13" s="20">
@@ -1576,15 +1534,15 @@
         <v>11.99</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>63</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1595,7 +1553,7 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="28">
         <v>0.93</v>
       </c>
       <c r="G14" s="20">
@@ -1614,14 +1572,14 @@
         <v>0.93</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
@@ -1633,7 +1591,7 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="28">
         <v>2.13</v>
       </c>
       <c r="G15" s="20">
@@ -1655,12 +1613,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>83</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1671,7 +1629,7 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="28">
         <v>0.26</v>
       </c>
       <c r="G16" s="20">
@@ -1690,15 +1648,15 @@
         <v>0.26</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -1709,7 +1667,7 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="28">
         <v>0.17</v>
       </c>
       <c r="G17" s="20">
@@ -1728,15 +1686,15 @@
         <v>0.17</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>85</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1747,7 +1705,7 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="28">
         <v>0.62</v>
       </c>
       <c r="G18" s="20">
@@ -1766,15 +1724,15 @@
         <v>5.58</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -1785,7 +1743,7 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="28">
         <v>0.33</v>
       </c>
       <c r="G19" s="20">
@@ -1807,11 +1765,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C20" t="s">
@@ -1823,7 +1781,7 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="28">
         <v>0.8</v>
       </c>
       <c r="G20" s="20">
@@ -1845,11 +1803,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="27" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="s">
@@ -1861,7 +1819,7 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="28">
         <v>1.9</v>
       </c>
       <c r="G21" s="20">
@@ -1883,12 +1841,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>62</v>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1899,7 +1857,7 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="28">
         <v>3.48</v>
       </c>
       <c r="G22" s="20">
@@ -1918,15 +1876,15 @@
         <v>3.48</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="40">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
         <v>1311</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>95</v>
+      <c r="B23" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1937,7 +1895,7 @@
       <c r="E23">
         <v>6</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="28">
         <v>23.13</v>
       </c>
       <c r="G23" s="20">
@@ -1956,11 +1914,11 @@
         <v>23.13</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B24" t="s">
@@ -1997,15 +1955,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
-        <v>107</v>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>106</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -2013,7 +1971,7 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="28">
         <v>0.23</v>
       </c>
       <c r="G25" s="20">
@@ -2032,18 +1990,18 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="K25" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" t="s">
-        <v>106</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -2051,7 +2009,7 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="28">
         <v>0.23</v>
       </c>
       <c r="G26" s="20">
@@ -2070,11 +2028,11 @@
         <v>1.1500000000000001</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
       <c r="H27" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2089,8 +2047,8 @@
       </c>
       <c r="K27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
       <c r="H28" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2105,11 +2063,11 @@
       </c>
       <c r="K28" s="8"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="43" t="s">
+    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="44"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="25">
         <v>25</v>
       </c>
@@ -2119,7 +2077,7 @@
       <c r="I29" s="15"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -2149,9 +2107,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
@@ -2165,7 +2123,7 @@
       <c r="F31">
         <v>577</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="34">
         <v>577</v>
       </c>
       <c r="I31" s="14">
@@ -2173,9 +2131,9 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
@@ -2189,7 +2147,7 @@
       <c r="F32">
         <v>84</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="34">
         <v>84</v>
       </c>
       <c r="I32" s="14">
@@ -2197,9 +2155,9 @@
         <v>0.17500000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
@@ -2213,7 +2171,7 @@
       <c r="F33">
         <v>8</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="34">
         <v>24</v>
       </c>
       <c r="I33" s="14">
@@ -2221,9 +2179,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -2237,7 +2195,7 @@
       <c r="F34">
         <v>8</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="34">
         <v>8</v>
       </c>
       <c r="I34" s="14">
@@ -2245,9 +2203,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
@@ -2261,7 +2219,7 @@
       <c r="F35">
         <v>677</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="34">
         <v>677</v>
       </c>
       <c r="I35" s="14">
@@ -2269,9 +2227,9 @@
         <v>1.2749999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -2285,7 +2243,7 @@
       <c r="F36">
         <v>8</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="34">
         <v>8</v>
       </c>
       <c r="I36" s="14">
@@ -2293,9 +2251,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
@@ -2309,7 +2267,7 @@
       <c r="F37">
         <v>8</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="34">
         <v>8</v>
       </c>
       <c r="I37" s="14">
@@ -2317,9 +2275,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
@@ -2333,7 +2291,7 @@
       <c r="F38">
         <v>27</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="34">
         <v>27</v>
       </c>
       <c r="I38" s="14">
@@ -2341,288 +2299,262 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="45" t="s">
+    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="46"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="29"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="47" t="s">
+      <c r="B49" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="30" t="s">
+      <c r="C49" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>2130</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
+        <v>4445</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
+        <v>254</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>5250</v>
+      </c>
+      <c r="B54" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="33"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="36">
-        <v>2130</v>
-      </c>
-      <c r="B53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="36">
-        <v>4445</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>21</v>
-      </c>
       <c r="C54" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="36">
-        <v>254</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="32">
+        <v>1713</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="36">
-        <v>5250</v>
-      </c>
-      <c r="B56" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <v>1119</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="32">
+        <v>4361</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="32">
+        <v>4294</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="36">
-        <v>1713</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="36">
-        <v>1119</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>28</v>
-      </c>
       <c r="C58" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="36">
-        <v>4361</v>
-      </c>
-      <c r="B59" s="31" t="s">
-        <v>30</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="32">
+        <v>2671</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>34</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="36">
-        <v>4294</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>61</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="32">
+        <v>598</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="36">
-        <v>2671</v>
-      </c>
-      <c r="B61" s="31" t="s">
-        <v>34</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="33">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="36">
-        <v>598</v>
-      </c>
-      <c r="B62" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C62" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="37">
-        <v>80</v>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
+        <v>301</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="32">
+        <v>298</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="36">
-        <v>301</v>
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="32">
+        <v>299</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="36">
-        <v>298</v>
-      </c>
-      <c r="B65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="36">
-        <v>299</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K7" r:id="rId1" xr:uid="{D2E327FA-E2B7-4B4A-8C2D-01C3E9EA9CAB}"/>
@@ -2634,18 +2566,18 @@
     <hyperlink ref="K15" r:id="rId7" xr:uid="{EBB1C10A-764B-4490-9473-6CE16BD63AFA}"/>
     <hyperlink ref="K20" r:id="rId8" xr:uid="{18847137-F556-4EC6-81AB-1E4B5EFC4B8D}"/>
     <hyperlink ref="K21" r:id="rId9" xr:uid="{C7759ABE-A47B-4207-95B0-362095AC7096}"/>
-    <hyperlink ref="C53" r:id="rId10" xr:uid="{6418FB25-254B-4D33-B432-3C2B5307C649}"/>
-    <hyperlink ref="C54" r:id="rId11" xr:uid="{A251E63D-3B47-4A3F-8FB7-B942AE4D5678}"/>
-    <hyperlink ref="C55" r:id="rId12" xr:uid="{5CC80A35-097D-438F-AC40-70CAF8E29BC8}"/>
-    <hyperlink ref="C56" r:id="rId13" xr:uid="{A506A559-3FC1-4F7B-990E-D2053D5B9A0B}"/>
-    <hyperlink ref="C57" r:id="rId14" xr:uid="{3FA20489-9A38-460A-9F06-8545E51992C2}"/>
-    <hyperlink ref="C58" r:id="rId15" xr:uid="{54E292A1-CD14-42F4-8131-70346433D1A6}"/>
-    <hyperlink ref="C59" r:id="rId16" xr:uid="{E7049785-C6C3-4232-B99F-7F53396B08CE}"/>
-    <hyperlink ref="C60" r:id="rId17" xr:uid="{09CE004A-EE87-4F7E-ACEC-C8CAA27B6E74}"/>
-    <hyperlink ref="C61" r:id="rId18" xr:uid="{A7ED4087-2CF1-4C3D-A803-3CBA756EE64A}"/>
-    <hyperlink ref="C62" r:id="rId19" xr:uid="{E4E6AD8C-E4A7-4EEE-922D-4E4D26A9FDA8}"/>
+    <hyperlink ref="C51" r:id="rId10" xr:uid="{6418FB25-254B-4D33-B432-3C2B5307C649}"/>
+    <hyperlink ref="C52" r:id="rId11" xr:uid="{A251E63D-3B47-4A3F-8FB7-B942AE4D5678}"/>
+    <hyperlink ref="C53" r:id="rId12" xr:uid="{5CC80A35-097D-438F-AC40-70CAF8E29BC8}"/>
+    <hyperlink ref="C54" r:id="rId13" xr:uid="{A506A559-3FC1-4F7B-990E-D2053D5B9A0B}"/>
+    <hyperlink ref="C55" r:id="rId14" xr:uid="{3FA20489-9A38-460A-9F06-8545E51992C2}"/>
+    <hyperlink ref="C56" r:id="rId15" xr:uid="{54E292A1-CD14-42F4-8131-70346433D1A6}"/>
+    <hyperlink ref="C57" r:id="rId16" xr:uid="{E7049785-C6C3-4232-B99F-7F53396B08CE}"/>
+    <hyperlink ref="C58" r:id="rId17" xr:uid="{09CE004A-EE87-4F7E-ACEC-C8CAA27B6E74}"/>
+    <hyperlink ref="C59" r:id="rId18" xr:uid="{A7ED4087-2CF1-4C3D-A803-3CBA756EE64A}"/>
+    <hyperlink ref="C60" r:id="rId19" xr:uid="{E4E6AD8C-E4A7-4EEE-922D-4E4D26A9FDA8}"/>
     <hyperlink ref="K24" r:id="rId20" xr:uid="{909933A4-568E-4314-8985-466FC8912C69}"/>
-    <hyperlink ref="C63" r:id="rId21" xr:uid="{BFD85697-ABF1-45ED-A21C-BA8635F2B5BE}"/>
+    <hyperlink ref="C61" r:id="rId21" xr:uid="{BFD85697-ABF1-45ED-A21C-BA8635F2B5BE}"/>
     <hyperlink ref="K5" r:id="rId22" xr:uid="{6CB18BCE-E031-4908-B947-97D753BD04A7}"/>
     <hyperlink ref="K17" r:id="rId23" xr:uid="{B843E1A3-243D-46EB-97EF-5095532344FC}"/>
     <hyperlink ref="K19" r:id="rId24" xr:uid="{AA815E47-5BE9-4AE3-ADE0-9D30F543554F}"/>
@@ -2664,29 +2596,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e0d9d996845e2cef65e12e895c4c91e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97eb945ec045b4d52e9ff03a8a8db852" ns2:_="" ns3:_="">
-    <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <xsd:import namespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72518c49cc9021390dbba2958e7a3f0c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175092e7cad6d6b91dac7c2ca96d6cf8" ns2:_="" ns3:_="">
+    <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+    <xsd:import namespace="715913e6-4bf0-458f-8160-f18e142d04ff"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2697,17 +2619,16 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2715,7 +2636,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2740,81 +2661,60 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="715913e6-4bf0-458f-8160-f18e142d04ff" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{230263d0-9f1a-4e63-a49c-f06b563fb00a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b05470fb-f248-421d-a4ae-c1bb0b45488d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="715913e6-4bf0-458f-8160-f18e142d04ff">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -2926,34 +2826,34 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <MediaLengthInSeconds xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80240A1E-5881-4056-A1BE-74245BFBBA7C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{268D2602-FD6E-4802-B472-1B038B2189FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2965,9 +2865,14 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Working_Documents/Open_Playback_Recorder_BOM.xlsx
+++ b/Documentation/Working_Documents/Open_Playback_Recorder_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/Jake/Shared Documents/General/GitHub/Open-Playback-Recorder/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 22-10 Open Playback Device/Open-Playback-Recorder/Open-Playback-Recorder/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="880" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B34B4282-3EB9-4EF7-8911-B5454C2095F2}"/>
+  <xr:revisionPtr revIDLastSave="1106" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B11C6B-0264-4033-94D4-DD0C02933B9D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="705" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="131">
   <si>
     <t>Unit Cost</t>
   </si>
@@ -92,78 +92,36 @@
     <t>Electrical</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/Seeed-Studio/102010268?qs=%252B6g0mu59x7KIlg%252BxI6sM2Q%3D%3D</t>
-  </si>
-  <si>
     <t>Audio Amplifier (Pam8302)</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/485-2130</t>
-  </si>
-  <si>
     <t>Mono Speaker (4Ω 3W )</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/485-3351</t>
-  </si>
-  <si>
     <t xml:space="preserve">Micro SD Reader </t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/485-254</t>
-  </si>
-  <si>
     <t>Microphone (MAX9814)</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/485-1713</t>
-  </si>
-  <si>
-    <t>B3F-5050</t>
-  </si>
-  <si>
     <t>Buttons (B3F-5050)</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/Omron-Electronics/B3F-5050?qs=dOLq8QE0Pqqk%2FO9x2OpTQw%3D%3D</t>
-  </si>
-  <si>
     <t>3.5 mm Mono Jack</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/Switchcraft/35RAPC2AV?qs=I3kMT7EEIOWP5G1fR6CxcA%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Vishay-Beyschlag/MBA02040C2001FCT00?qs=Q%252BviyuKCy%2FwudcV7dCRvqQ%3D%3D</t>
-  </si>
-  <si>
-    <t>HDR100IMP40M-G-V-TH</t>
-  </si>
-  <si>
     <t>Male Through Hole Header</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/910-HDR100IMP40MGVTH</t>
-  </si>
-  <si>
-    <t>HDR100IMP40F-G-V-TH</t>
-  </si>
-  <si>
     <t>Female Through Hole Header</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/Chip-Quik/HDR100IMP40F-G-V-TH?qs=Wj%2FVkw3K%252BMB%252BpQKGESbrjQ%3D%3D</t>
-  </si>
-  <si>
     <t>HH-3449</t>
   </si>
   <si>
     <t>9V Battery Clip</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/Bud-Industries/HH-3449?qs=l8tafrjApPBvV0mmo%252BVZ5Q%3D%3D</t>
-  </si>
-  <si>
     <t>3D Printed Parts                           ESTIMATED PRICING USING 1KG ROLL COST:</t>
   </si>
   <si>
@@ -188,6 +146,9 @@
     <t>PLA</t>
   </si>
   <si>
+    <t>Custom Printed Circuit Board (PCB)</t>
+  </si>
+  <si>
     <t>Tools for Assembly</t>
   </si>
   <si>
@@ -224,21 +185,9 @@
     <t>9V Battery</t>
   </si>
   <si>
-    <t>On/Off Rocker Switch</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/E-Switch/RA11131123?qs=QtyuwXswaQhc6OwdGDJDiQ%3D%3D</t>
-  </si>
-  <si>
     <t>Audio Potentiometer</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/858-P160KNP0QC20A10K</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Duracell/MN1604?qs=sGAEpiMZZMuXcNZ31nzYhRxIBnh8NwTszWVrE18PlWU%3D</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/product/2130</t>
   </si>
   <si>
@@ -272,15 +221,6 @@
     <t>https://www.adafruit.com/product/80</t>
   </si>
   <si>
-    <t>RA11131123</t>
-  </si>
-  <si>
-    <t>MBA02040C2001FCT00</t>
-  </si>
-  <si>
-    <t>MN1604</t>
-  </si>
-  <si>
     <t>Resistor (2k Ω)</t>
   </si>
   <si>
@@ -299,15 +239,9 @@
     <t>Battery Cover</t>
   </si>
   <si>
-    <t>Button Mount</t>
-  </si>
-  <si>
     <t>Level Button</t>
   </si>
   <si>
-    <t>Lid</t>
-  </si>
-  <si>
     <t>Volume Knob</t>
   </si>
   <si>
@@ -317,60 +251,9 @@
     <t>Record Button</t>
   </si>
   <si>
-    <t>https://www.mouser.ca/ProductDetail/Adafruit/1311?qs=GURawfaeGuBbUKgxUfZ%252BxQ%3D%3D</t>
-  </si>
-  <si>
-    <t>Wire Spool Set</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/604-WP7113VRCBCA</t>
-  </si>
-  <si>
-    <t>Protoboard</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Eiechip%C2%AE-Prototype-Universal-Electronics-Protoboard/dp/B07MTBNX8F/ref=sr_1_6?crid=1G3FYHUCMXJM0&amp;keywords=protoboard&amp;qid=1695770763&amp;sprefix=protoboar%2Caps%2C191&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Cree-LED/C503B-RAN-CZ0C0AA1?qs=u4fy%2FsgLU9Otg%2Fl%2FF818Gw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Cree-LED/C4SMA-GGY-CU2W37A1?qs=7D1LtPJG0i1gnYL5Rh9Mjg%3D%3D</t>
-  </si>
-  <si>
-    <t>5252 Adafruit | Mouser Canada</t>
-  </si>
-  <si>
-    <t>M2 screw</t>
-  </si>
-  <si>
-    <t>M3 screw</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Essentra/50M030050K005?qs=PzGy0jfpSMst2qdUqlCoNw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Essentra/50M020040G006?qs=PzGy0jfpSMuHcUCYjxLeHA%3D%3D</t>
-  </si>
-  <si>
     <t>Mechanical</t>
   </si>
   <si>
-    <t>50M020040G006</t>
-  </si>
-  <si>
-    <t>C503B-RAN-CZ0C0AA1</t>
-  </si>
-  <si>
-    <t>C4SMA-GGY-CU2W37A1</t>
-  </si>
-  <si>
-    <t>WP7113VRCBC/A</t>
-  </si>
-  <si>
-    <t>50M030050K005</t>
-  </si>
-  <si>
     <t>https://www.adafruit.com/product/301</t>
   </si>
   <si>
@@ -380,7 +263,145 @@
     <t>https://www.adafruit.com/product/298</t>
   </si>
   <si>
-    <t>Last Updated: Oct 04, 2023</t>
+    <t>Open Playback Recorder</t>
+  </si>
+  <si>
+    <t>Toggle Switch</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/cui-devices/PTN16-A10125K1A2/20380750</t>
+  </si>
+  <si>
+    <t>PTN16-A10125K1A2</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/omron-electronics-inc-emc-div/B3F-3152/31741</t>
+  </si>
+  <si>
+    <t>B3F-3152</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/c-k/OS102011MA1QS1/1981431</t>
+  </si>
+  <si>
+    <t>OS102011MA1QS1</t>
+  </si>
+  <si>
+    <t>SJ1-3535NG</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/cui-devices/SJ1-3535NG/738699</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/serpac/6005/307599</t>
+  </si>
+  <si>
+    <t>#4 Sheet Metal Screw</t>
+  </si>
+  <si>
+    <t>Ribbon Cable</t>
+  </si>
+  <si>
+    <t>Ribbon Cable Header</t>
+  </si>
+  <si>
+    <t>H3DDS-1006G</t>
+  </si>
+  <si>
+    <t>86130101014345E1LF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/amphenol-cs-fci/86130101014345E1LF/7592367</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/assmann-wsw-components/H3DDS-1006G/1218627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/kemet/C315C104M5U5TA/817927</t>
+  </si>
+  <si>
+    <t>5 pin header</t>
+  </si>
+  <si>
+    <t>15 pin header</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/sullins-connector-solutions/PPTC051LFBN-RC/807239</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/sullins-connector-solutions/PPTC151LFBN-RC/810153</t>
+  </si>
+  <si>
+    <t>PPTC151LFBN-RC</t>
+  </si>
+  <si>
+    <t>PPTC051LFBN-RC</t>
+  </si>
+  <si>
+    <t>C315C104M5U5TA</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/151051VS04000/4490015</t>
+  </si>
+  <si>
+    <t>151051VS04000</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/seeed-technology-co-ltd/102010268/10290292</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/2130/5761279</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/1713/4990777</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/5252/15841478</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/254/5761230</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/adafruit-industries-llc/3351/6612456</t>
+  </si>
+  <si>
+    <t>A1604 BK210J</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/keystone-electronics/232/303804</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/yageo/MFR-25FRF52-2K/14920</t>
+  </si>
+  <si>
+    <t>MFR-25FRF52-2K</t>
+  </si>
+  <si>
+    <t>OVLFB3C7</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/everlight-electronics-co-ltd/EALP05RDHRA2/5142171</t>
+  </si>
+  <si>
+    <t>EALP05RDHRA2</t>
+  </si>
+  <si>
+    <t>Open Playback Recorder Top PCB</t>
+  </si>
+  <si>
+    <t>Open Playback Recorder Bottom PCB</t>
+  </si>
+  <si>
+    <t>PCB shipping</t>
+  </si>
+  <si>
+    <t>https://www.pcbway.com/</t>
+  </si>
+  <si>
+    <t>Last Updated: Jun 21, 2024</t>
   </si>
   <si>
     <r>
@@ -396,11 +417,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>V1.0</t>
+      <t>V2.0</t>
     </r>
   </si>
   <si>
-    <t>Open Playback Recorder</t>
+    <t>Lid</t>
+  </si>
+  <si>
+    <t>2 LED Spacer</t>
+  </si>
+  <si>
+    <t>3 LED Spacer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B07NCXNKJR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical </t>
+  </si>
+  <si>
+    <t>T-Nut</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/151051BS04000/4490009</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/duracell-industrial-operations-inc/9V/21259959</t>
   </si>
 </sst>
 </file>
@@ -597,7 +639,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -721,6 +763,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -743,9 +818,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1"/>
@@ -772,6 +847,10 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -790,15 +869,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -1087,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,7 +1195,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>0</v>
@@ -1130,33 +1212,33 @@
     </row>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="I2" s="24">
-        <f>SUM(I5:I24,I31:I39)</f>
-        <v>82.958333333333343</v>
+        <f>SUM(I5:I27,I31:I40)</f>
+        <v>93.398400000000009</v>
       </c>
       <c r="J2" s="5">
-        <f>SUM(J5:J24,I31:I39)</f>
-        <v>115.94500000000002</v>
+        <f>SUM(J5:J27,I31:I40)</f>
+        <v>112.38000000000001</v>
       </c>
       <c r="K2" s="16">
-        <f>SUM(H31:H38)/60</f>
-        <v>23.55</v>
+        <f>SUM(H31:H39)/60</f>
+        <v>3.2333333333333334</v>
       </c>
       <c r="L2" s="6">
-        <f>SUM(E31:E38)</f>
-        <v>109</v>
+        <f>SUM(E31:E39)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38"/>
+      <c r="B3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -1196,7 +1278,7 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="33">
         <v>102010268</v>
       </c>
       <c r="B5" t="s">
@@ -1212,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="9">
-        <v>10.49</v>
+        <v>10.99</v>
       </c>
       <c r="G5" s="20">
         <f>IF(E5&gt;0,ROUNDUP(D5/E5,0),0)</f>
@@ -1220,26 +1302,26 @@
       </c>
       <c r="H5" s="23">
         <f>IF(E5&gt;0,F5/E5,0)</f>
-        <v>10.49</v>
+        <v>10.99</v>
       </c>
       <c r="I5" s="23">
         <f>H5*D5</f>
-        <v>10.49</v>
+        <v>10.99</v>
       </c>
       <c r="J5" s="21">
         <f>G5*F5*D5</f>
-        <v>10.49</v>
+        <v>10.99</v>
       </c>
       <c r="K5" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>2130</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
-        <v>2130</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1251,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="9">
-        <v>5.45</v>
+        <v>6.09</v>
       </c>
       <c r="G6" s="20">
         <f t="shared" ref="G6:G7" si="0">IF(E6&gt;0,ROUNDUP(D6/E6,0),0)</f>
@@ -1259,26 +1341,26 @@
       </c>
       <c r="H6" s="23">
         <f t="shared" ref="H6:H28" si="1">IF(E6&gt;0,F6/E6,0)</f>
-        <v>5.45</v>
+        <v>6.09</v>
       </c>
       <c r="I6" s="23">
         <f t="shared" ref="I6:I28" si="2">H6*D6</f>
-        <v>5.45</v>
+        <v>6.09</v>
       </c>
       <c r="J6" s="21">
         <f t="shared" ref="J6:J28" si="3">G6*F6*D6</f>
-        <v>5.45</v>
+        <v>6.09</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="34">
         <v>3351</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>21</v>
+      <c r="B7" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1290,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="9">
-        <v>5.45</v>
+        <v>6.09</v>
       </c>
       <c r="G7" s="20">
         <f t="shared" si="0"/>
@@ -1298,26 +1380,26 @@
       </c>
       <c r="H7" s="23">
         <f t="shared" si="1"/>
-        <v>5.45</v>
+        <v>6.09</v>
       </c>
       <c r="I7" s="23">
         <f t="shared" si="2"/>
-        <v>5.45</v>
+        <v>6.09</v>
       </c>
       <c r="J7" s="21">
         <f t="shared" si="3"/>
-        <v>5.45</v>
+        <v>6.09</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>102010268</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>64</v>
+      <c r="A8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -1328,34 +1410,34 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="28">
-        <v>2.13</v>
+      <c r="F8" s="32">
+        <v>3.08</v>
       </c>
       <c r="G8" s="20">
         <v>1</v>
       </c>
       <c r="H8" s="23">
         <f t="shared" si="1"/>
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="I8" s="23">
         <f t="shared" si="2"/>
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="J8" s="21">
         <f t="shared" si="3"/>
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="35">
         <v>254</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>23</v>
+      <c r="B9" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -1366,34 +1448,34 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="28">
-        <v>10.35</v>
+      <c r="F9" s="32">
+        <v>10.85</v>
       </c>
       <c r="G9" s="20">
         <v>1</v>
       </c>
       <c r="H9" s="23">
         <f t="shared" si="1"/>
-        <v>10.35</v>
+        <v>10.85</v>
       </c>
       <c r="I9" s="23">
         <f t="shared" si="2"/>
-        <v>10.35</v>
+        <v>10.85</v>
       </c>
       <c r="J9" s="21">
         <f t="shared" si="3"/>
-        <v>10.35</v>
+        <v>10.85</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="33">
         <v>5249</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>59</v>
+      <c r="B10" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1404,34 +1486,34 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="28">
-        <v>7.18</v>
+      <c r="F10" s="32">
+        <v>7.86</v>
       </c>
       <c r="G10" s="20">
         <v>1</v>
       </c>
       <c r="H10" s="23">
         <f t="shared" si="1"/>
-        <v>7.18</v>
+        <v>7.86</v>
       </c>
       <c r="I10" s="23">
         <f t="shared" si="2"/>
-        <v>7.18</v>
+        <v>7.86</v>
       </c>
       <c r="J10" s="21">
         <f t="shared" si="3"/>
-        <v>7.18</v>
+        <v>7.86</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="35">
         <v>1713</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>25</v>
+      <c r="B11" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1442,34 +1524,34 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="28">
-        <v>10.97</v>
+      <c r="F11" s="32">
+        <v>11.5</v>
       </c>
       <c r="G11" s="20">
         <v>1</v>
       </c>
       <c r="H11" s="23">
         <f t="shared" si="1"/>
-        <v>10.97</v>
+        <v>11.5</v>
       </c>
       <c r="I11" s="23">
         <f t="shared" si="2"/>
-        <v>10.97</v>
+        <v>11.5</v>
       </c>
       <c r="J11" s="21">
         <f t="shared" si="3"/>
-        <v>10.97</v>
+        <v>11.5</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>28</v>
+      <c r="A12" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1480,145 +1562,148 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="28">
-        <v>0.76</v>
+      <c r="F12" s="32">
+        <v>0.51</v>
       </c>
       <c r="G12" s="20">
         <v>1</v>
       </c>
       <c r="H12" s="23">
         <f t="shared" si="1"/>
-        <v>0.76</v>
+        <v>0.51</v>
       </c>
       <c r="I12" s="23">
         <f t="shared" si="2"/>
-        <v>2.2800000000000002</v>
+        <v>1.53</v>
       </c>
       <c r="J12" s="21">
         <f t="shared" si="3"/>
-        <v>2.2800000000000002</v>
+        <v>1.53</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="27" t="s">
-        <v>96</v>
+      <c r="A13" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13" s="28">
-        <v>11.99</v>
+        <v>1</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.65</v>
       </c>
       <c r="G13" s="20">
         <v>1</v>
       </c>
       <c r="H13" s="23">
-        <f t="shared" ref="H13:H14" si="4">IF(E13&gt;0,F13/E13,0)</f>
-        <v>0.99916666666666665</v>
+        <f t="shared" ref="H13" si="4">IF(E13&gt;0,F13/E13,0)</f>
+        <v>0.65</v>
       </c>
       <c r="I13" s="23">
-        <f t="shared" ref="I13:I14" si="5">H13*D13</f>
-        <v>1.9983333333333333</v>
+        <f t="shared" ref="I13" si="5">H13*D13</f>
+        <v>0.65</v>
       </c>
       <c r="J13" s="21">
-        <v>11.99</v>
+        <f t="shared" si="3"/>
+        <v>0.65</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>62</v>
+      <c r="A14" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="28">
-        <v>0.93</v>
+      <c r="F14" s="32">
+        <v>2.31</v>
       </c>
       <c r="G14" s="20">
         <v>1</v>
       </c>
       <c r="H14" s="23">
-        <f t="shared" si="4"/>
-        <v>0.93</v>
+        <f t="shared" si="1"/>
+        <v>2.31</v>
       </c>
       <c r="I14" s="23">
-        <f t="shared" si="5"/>
-        <v>0.93</v>
+        <f t="shared" si="2"/>
+        <v>4.62</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="3"/>
-        <v>0.93</v>
+        <v>4.62</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>30</v>
+      <c r="A15" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="28">
-        <v>2.13</v>
+      <c r="F15" s="32">
+        <v>0.63</v>
       </c>
       <c r="G15" s="20">
         <v>1</v>
       </c>
       <c r="H15" s="23">
         <f t="shared" si="1"/>
-        <v>2.13</v>
+        <v>0.63</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" si="2"/>
-        <v>4.26</v>
+        <v>0.63</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="3"/>
-        <v>4.26</v>
+        <v>0.63</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>82</v>
+      <c r="A16" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -1629,148 +1714,148 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="28">
-        <v>0.26</v>
+      <c r="F16" s="32">
+        <v>0.4</v>
       </c>
       <c r="G16" s="20">
         <v>1</v>
       </c>
       <c r="H16" s="23">
         <f t="shared" si="1"/>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="I16" s="23">
         <f t="shared" si="2"/>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="3"/>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>83</v>
+      <c r="A17" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="28">
-        <v>0.17</v>
+      <c r="F17" s="32">
+        <v>0.4</v>
       </c>
       <c r="G17" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="23">
         <f t="shared" si="1"/>
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="I17" s="23">
         <f t="shared" si="2"/>
-        <v>0.17</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="3"/>
-        <v>0.17</v>
+        <v>3.6000000000000005</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>84</v>
+      <c r="A18" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="28">
-        <v>0.62</v>
+      <c r="F18" s="32">
+        <v>0.15</v>
       </c>
       <c r="G18" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="23">
         <f t="shared" si="1"/>
-        <v>0.62</v>
+        <v>0.15</v>
       </c>
       <c r="I18" s="23">
         <f t="shared" si="2"/>
-        <v>1.8599999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="3"/>
-        <v>5.58</v>
+        <v>0.75</v>
       </c>
       <c r="K18" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="28">
-        <v>0.33</v>
+      <c r="F19" s="32">
+        <v>0.7</v>
       </c>
       <c r="G19" s="20">
         <v>1</v>
       </c>
       <c r="H19" s="23">
         <f t="shared" si="1"/>
-        <v>0.33</v>
+        <v>0.7</v>
       </c>
       <c r="I19" s="23">
         <f t="shared" si="2"/>
-        <v>1.6500000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="3"/>
-        <v>1.6500000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>34</v>
+      <c r="A20" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>96</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1781,72 +1866,72 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="28">
-        <v>0.8</v>
+      <c r="F20" s="32">
+        <v>1.44</v>
       </c>
       <c r="G20" s="20">
         <v>1</v>
       </c>
       <c r="H20" s="23">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
+        <f>IF(E20&gt;0,F20/E20,0)</f>
+        <v>1.44</v>
       </c>
       <c r="I20" s="23">
-        <f t="shared" si="2"/>
-        <v>1.6</v>
+        <f>H20*D20</f>
+        <v>2.88</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>2.88</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>37</v>
+      <c r="A21" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="28">
-        <v>1.9</v>
+      <c r="F21" s="32">
+        <v>9.6199999999999992</v>
       </c>
       <c r="G21" s="20">
         <v>1</v>
       </c>
       <c r="H21" s="23">
-        <f>IF(E21&gt;0,F21/E21,0)</f>
-        <v>1.9</v>
+        <f t="shared" ref="H21:H23" si="6">IF(E21&gt;0,F21/E21,0)</f>
+        <v>9.6199999999999992</v>
       </c>
       <c r="I21" s="23">
-        <f>H21*D21</f>
-        <v>3.8</v>
+        <f t="shared" ref="I21:I23" si="7">H21*D21</f>
+        <v>9.6199999999999992</v>
       </c>
       <c r="J21" s="21">
         <f t="shared" si="3"/>
-        <v>3.8</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>61</v>
+      <c r="A22" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>93</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1857,72 +1942,70 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="28">
-        <v>3.48</v>
+      <c r="F22" s="32">
+        <v>0.47</v>
       </c>
       <c r="G22" s="20">
         <v>1</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:H23" si="6">IF(E22&gt;0,F22/E22,0)</f>
-        <v>3.48</v>
+        <f t="shared" si="6"/>
+        <v>0.47</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" ref="I22:I23" si="7">H22*D22</f>
-        <v>3.48</v>
+        <f t="shared" si="7"/>
+        <v>0.47</v>
       </c>
       <c r="J22" s="21">
         <f t="shared" si="3"/>
-        <v>3.48</v>
+        <v>0.47</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
-        <v>1311</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>94</v>
+      <c r="A23" s="40"/>
+      <c r="B23" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23" s="28">
-        <v>23.13</v>
+        <v>50</v>
+      </c>
+      <c r="F23" s="32">
+        <v>16.920000000000002</v>
       </c>
       <c r="G23" s="20">
         <v>1</v>
       </c>
       <c r="H23" s="23">
         <f t="shared" si="6"/>
-        <v>3.855</v>
+        <v>0.33840000000000003</v>
       </c>
       <c r="I23" s="23">
         <f t="shared" si="7"/>
-        <v>3.855</v>
+        <v>0.33840000000000003</v>
       </c>
       <c r="J23" s="21">
         <f t="shared" si="3"/>
-        <v>23.13</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>39</v>
+      <c r="A24" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -1933,122 +2016,144 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>2.0699999999999998</v>
+      <c r="F24" s="9">
+        <v>0.76</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="23">
         <f t="shared" si="1"/>
-        <v>2.0699999999999998</v>
+        <v>0.76</v>
       </c>
       <c r="I24" s="23">
         <f t="shared" si="2"/>
-        <v>2.0699999999999998</v>
+        <v>0.76</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="3"/>
-        <v>2.0699999999999998</v>
+        <v>0.76</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>106</v>
+      <c r="A25" s="40">
+        <v>6005</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="28">
-        <v>0.23</v>
+      <c r="F25" s="32">
+        <v>0.6</v>
       </c>
       <c r="G25" s="20">
         <v>1</v>
       </c>
       <c r="H25" s="23">
         <f t="shared" si="1"/>
-        <v>0.23</v>
+        <v>0.6</v>
       </c>
       <c r="I25" s="23">
         <f t="shared" si="2"/>
-        <v>2.3000000000000003</v>
+        <v>6.6</v>
       </c>
       <c r="J25" s="21">
         <f t="shared" si="3"/>
-        <v>2.3000000000000003</v>
+        <v>6.6</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>110</v>
+      <c r="A26" s="39" t="s">
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="28">
-        <v>0.23</v>
+      <c r="F26" s="32">
+        <v>1.82</v>
       </c>
       <c r="G26" s="20">
         <v>1</v>
       </c>
       <c r="H26" s="23">
         <f t="shared" si="1"/>
-        <v>0.23</v>
+        <v>1.82</v>
       </c>
       <c r="I26" s="23">
         <f t="shared" si="2"/>
-        <v>1.1500000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="J26" s="21">
         <f t="shared" si="3"/>
-        <v>1.1500000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0.86</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
       <c r="H27" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="I27" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="J27" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="8"/>
+        <v>1.72</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+      <c r="A28" s="33"/>
       <c r="H28" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2064,10 +2169,10 @@
       <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="40"/>
+      <c r="A29" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="45"/>
       <c r="C29" s="25">
         <v>25</v>
       </c>
@@ -2082,26 +2187,26 @@
         <v>5</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>15</v>
@@ -2109,82 +2214,76 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>577</v>
-      </c>
-      <c r="H31" s="34">
-        <v>577</v>
+        <v>70</v>
+      </c>
+      <c r="H31" s="38">
+        <v>70</v>
       </c>
       <c r="I31" s="14">
-        <f t="shared" ref="I31:I38" si="8">(E31/1000)*$C$29</f>
-        <v>1.125</v>
+        <f t="shared" ref="I31:I39" si="8">(E31/1000)*$C$29</f>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>84</v>
-      </c>
-      <c r="H32" s="34">
-        <v>84</v>
+        <v>16</v>
+      </c>
+      <c r="H32" s="38">
+        <v>16</v>
       </c>
       <c r="I32" s="14">
         <f t="shared" si="8"/>
-        <v>0.17500000000000002</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="H33" s="34">
-        <v>24</v>
-      </c>
-      <c r="I33" s="14">
-        <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H33" s="38">
+        <v>6</v>
+      </c>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2193,10 +2292,10 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>8</v>
-      </c>
-      <c r="H34" s="34">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="H34" s="38">
+        <v>5</v>
       </c>
       <c r="I34" s="14">
         <f t="shared" si="8"/>
@@ -2205,58 +2304,58 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>677</v>
-      </c>
-      <c r="H35" s="34">
-        <v>677</v>
+        <v>3</v>
+      </c>
+      <c r="H35" s="38">
+        <v>3</v>
       </c>
       <c r="I35" s="14">
         <f t="shared" si="8"/>
-        <v>1.2749999999999999</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F36">
-        <v>8</v>
-      </c>
-      <c r="H36" s="34">
-        <v>8</v>
+        <v>79</v>
+      </c>
+      <c r="H36" s="38">
+        <v>79</v>
       </c>
       <c r="I36" s="14">
         <f t="shared" si="8"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2265,10 +2364,10 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>8</v>
-      </c>
-      <c r="H37" s="34">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="H37" s="38">
+        <v>3</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" si="8"/>
@@ -2277,87 +2376,142 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>27</v>
-      </c>
-      <c r="H38" s="34">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="H38" s="38">
+        <v>3</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="8"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="H39" s="38">
+        <v>9</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="8"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
+      <c r="A41" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="47"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="29"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>52</v>
+        <v>117</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" s="41">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>53</v>
+        <v>118</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44" s="41">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>55</v>
+        <v>119</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="41">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="42"/>
+      <c r="B47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="45"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2371,244 +2525,274 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
     </row>
-    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B56" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="36">
+        <v>2130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="36">
+        <v>4445</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="36">
+        <v>254</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="36">
+        <v>5250</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="36">
+        <v>1713</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="36">
+        <v>1119</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="36">
+        <v>4361</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="36">
+        <v>4294</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="36">
+        <v>2671</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="32">
-        <v>2130</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="32">
-        <v>4445</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="32">
-        <v>254</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
-        <v>5250</v>
-      </c>
-      <c r="B54" s="27" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="36">
+        <v>598</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="32">
-        <v>1713</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
-        <v>1119</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56" s="8" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="37">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="36">
+        <v>301</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="32">
-        <v>4361</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="8" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="36">
+        <v>298</v>
+      </c>
+      <c r="B70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="36">
+        <v>299</v>
+      </c>
+      <c r="B71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
-        <v>4294</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="32">
-        <v>2671</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="32">
-        <v>598</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="33">
-        <v>80</v>
-      </c>
-      <c r="B61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="32">
-        <v>301</v>
-      </c>
-      <c r="B62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C62" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="32">
-        <v>298</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="32">
-        <v>299</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="s">
-        <v>112</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A55:B55"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1" xr:uid="{D2E327FA-E2B7-4B4A-8C2D-01C3E9EA9CAB}"/>
-    <hyperlink ref="K6" r:id="rId2" xr:uid="{4718C877-1546-4DFC-B62B-AE5CFA4FA840}"/>
-    <hyperlink ref="K8" r:id="rId3" xr:uid="{FF7907E7-7883-4904-A6AB-2E688688C143}"/>
-    <hyperlink ref="K9" r:id="rId4" xr:uid="{421C3A91-6F68-449C-8829-AB726841CB77}"/>
-    <hyperlink ref="K11" r:id="rId5" xr:uid="{74EE1DCA-AA0A-4457-9E7D-6743931E83CC}"/>
-    <hyperlink ref="K12" r:id="rId6" xr:uid="{1920E416-7F10-4BC0-B032-533948B63047}"/>
-    <hyperlink ref="K15" r:id="rId7" xr:uid="{EBB1C10A-764B-4490-9473-6CE16BD63AFA}"/>
-    <hyperlink ref="K20" r:id="rId8" xr:uid="{18847137-F556-4EC6-81AB-1E4B5EFC4B8D}"/>
-    <hyperlink ref="K21" r:id="rId9" xr:uid="{C7759ABE-A47B-4207-95B0-362095AC7096}"/>
-    <hyperlink ref="C51" r:id="rId10" xr:uid="{6418FB25-254B-4D33-B432-3C2B5307C649}"/>
-    <hyperlink ref="C52" r:id="rId11" xr:uid="{A251E63D-3B47-4A3F-8FB7-B942AE4D5678}"/>
-    <hyperlink ref="C53" r:id="rId12" xr:uid="{5CC80A35-097D-438F-AC40-70CAF8E29BC8}"/>
-    <hyperlink ref="C54" r:id="rId13" xr:uid="{A506A559-3FC1-4F7B-990E-D2053D5B9A0B}"/>
-    <hyperlink ref="C55" r:id="rId14" xr:uid="{3FA20489-9A38-460A-9F06-8545E51992C2}"/>
-    <hyperlink ref="C56" r:id="rId15" xr:uid="{54E292A1-CD14-42F4-8131-70346433D1A6}"/>
-    <hyperlink ref="C57" r:id="rId16" xr:uid="{E7049785-C6C3-4232-B99F-7F53396B08CE}"/>
-    <hyperlink ref="C58" r:id="rId17" xr:uid="{09CE004A-EE87-4F7E-ACEC-C8CAA27B6E74}"/>
-    <hyperlink ref="C59" r:id="rId18" xr:uid="{A7ED4087-2CF1-4C3D-A803-3CBA756EE64A}"/>
-    <hyperlink ref="C60" r:id="rId19" xr:uid="{E4E6AD8C-E4A7-4EEE-922D-4E4D26A9FDA8}"/>
-    <hyperlink ref="K24" r:id="rId20" xr:uid="{909933A4-568E-4314-8985-466FC8912C69}"/>
-    <hyperlink ref="C61" r:id="rId21" xr:uid="{BFD85697-ABF1-45ED-A21C-BA8635F2B5BE}"/>
-    <hyperlink ref="K5" r:id="rId22" xr:uid="{6CB18BCE-E031-4908-B947-97D753BD04A7}"/>
-    <hyperlink ref="K17" r:id="rId23" xr:uid="{B843E1A3-243D-46EB-97EF-5095532344FC}"/>
-    <hyperlink ref="K19" r:id="rId24" xr:uid="{AA815E47-5BE9-4AE3-ADE0-9D30F543554F}"/>
-    <hyperlink ref="K14" r:id="rId25" xr:uid="{4B9DB93D-16AA-439C-A97B-E1276379158C}"/>
-    <hyperlink ref="K22" r:id="rId26" xr:uid="{18F79AAB-38D0-46BC-96E2-EB65D5A1F8E3}"/>
-    <hyperlink ref="K10" r:id="rId27" display="https://www.mouser.ca/ProductDetail/Adafruit/5252?qs=Rp5uXu7WBW%252B6fpFpy8gBgA%3D%3D" xr:uid="{9FCA7ABE-F4C0-4187-9751-FF66E5C9FFDE}"/>
-    <hyperlink ref="K16" r:id="rId28" xr:uid="{A2994C2F-A7AF-45D6-ADCA-ED4A53194172}"/>
-    <hyperlink ref="K18" r:id="rId29" xr:uid="{6B324BF7-6C6B-4775-B231-A1C188CD57AA}"/>
-    <hyperlink ref="K23" r:id="rId30" xr:uid="{A991A783-1C24-46EF-92AA-4C21E3224773}"/>
-    <hyperlink ref="K26" r:id="rId31" xr:uid="{4749D93F-FF5C-4319-80C2-F13399A0B159}"/>
-    <hyperlink ref="K13" r:id="rId32" xr:uid="{D532785A-9A3D-4FF6-B017-CDAF361147F5}"/>
+    <hyperlink ref="C58" r:id="rId1" xr:uid="{6418FB25-254B-4D33-B432-3C2B5307C649}"/>
+    <hyperlink ref="C59" r:id="rId2" xr:uid="{A251E63D-3B47-4A3F-8FB7-B942AE4D5678}"/>
+    <hyperlink ref="C60" r:id="rId3" xr:uid="{5CC80A35-097D-438F-AC40-70CAF8E29BC8}"/>
+    <hyperlink ref="C61" r:id="rId4" xr:uid="{A506A559-3FC1-4F7B-990E-D2053D5B9A0B}"/>
+    <hyperlink ref="C62" r:id="rId5" xr:uid="{3FA20489-9A38-460A-9F06-8545E51992C2}"/>
+    <hyperlink ref="C63" r:id="rId6" xr:uid="{54E292A1-CD14-42F4-8131-70346433D1A6}"/>
+    <hyperlink ref="C64" r:id="rId7" xr:uid="{E7049785-C6C3-4232-B99F-7F53396B08CE}"/>
+    <hyperlink ref="C65" r:id="rId8" xr:uid="{09CE004A-EE87-4F7E-ACEC-C8CAA27B6E74}"/>
+    <hyperlink ref="C66" r:id="rId9" xr:uid="{A7ED4087-2CF1-4C3D-A803-3CBA756EE64A}"/>
+    <hyperlink ref="C67" r:id="rId10" xr:uid="{E4E6AD8C-E4A7-4EEE-922D-4E4D26A9FDA8}"/>
+    <hyperlink ref="C68" r:id="rId11" xr:uid="{BFD85697-ABF1-45ED-A21C-BA8635F2B5BE}"/>
+    <hyperlink ref="K17" r:id="rId12" xr:uid="{9B6DE837-36AA-49DB-96BE-76B6B4C64274}"/>
+    <hyperlink ref="K5" r:id="rId13" xr:uid="{6EA2A24B-4D15-4550-96E5-471511DDEE08}"/>
+    <hyperlink ref="K6" r:id="rId14" xr:uid="{38665ECC-78D6-4D52-A2FD-AAF027E58D21}"/>
+    <hyperlink ref="K7" r:id="rId15" xr:uid="{3A569B8B-3616-430D-8910-0F9273C14D60}"/>
+    <hyperlink ref="K8" r:id="rId16" xr:uid="{336404EB-808D-4DCA-AED2-755E0D3D4B87}"/>
+    <hyperlink ref="K9" r:id="rId17" xr:uid="{ABCE312F-14B6-450A-A40E-0FF19104DAB6}"/>
+    <hyperlink ref="K10" r:id="rId18" xr:uid="{9C195BD9-8E32-4A2A-A749-D9950F2A5B57}"/>
+    <hyperlink ref="K11" r:id="rId19" xr:uid="{1D9F8249-BAD7-41A5-AE96-5EAF3A7898DB}"/>
+    <hyperlink ref="K14" r:id="rId20" xr:uid="{D451122D-1DDE-4F51-B853-9328C0136ABF}"/>
+    <hyperlink ref="K15" r:id="rId21" xr:uid="{25780068-25D7-40CB-B913-2C6477D69214}"/>
+    <hyperlink ref="K21" r:id="rId22" xr:uid="{1AF067E7-A776-47AD-AAFD-86DAECD9B5BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72518c49cc9021390dbba2958e7a3f0c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175092e7cad6d6b91dac7c2ca96d6cf8" ns2:_="" ns3:_="">
-    <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
-    <xsd:import namespace="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16a8de1b3ad07fcfe40131daee80152">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85720a748046338a72a4f25fe522aa39" ns2:_="" ns3:_="">
+    <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <xsd:import namespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2619,12 +2803,14 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
@@ -2636,7 +2822,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2661,60 +2847,86 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="715913e6-4bf0-458f-8160-f18e142d04ff" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b05470fb-f248-421d-a4ae-c1bb0b45488d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="715913e6-4bf0-458f-8160-f18e142d04ff">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{230263d0-9f1a-4e63-a49c-f06b563fb00a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -2825,41 +3037,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <MediaLengthInSeconds xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xsi:nil="true"/>
+    <SharedWithUsers xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{268D2602-FD6E-4802-B472-1B038B2189FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E5EB692-D7F8-4E14-B2F1-51BDE658334F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
-    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2871,8 +3099,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
-    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Working_Documents/Open_Playback_Recorder_BOM.xlsx
+++ b/Documentation/Working_Documents/Open_Playback_Recorder_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 22-10 Open Playback Device/Open-Playback-Recorder/Open-Playback-Recorder/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradw\GitHub\Open-Playback-Recorder\Documentation\Working_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1106" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B11C6B-0264-4033-94D4-DD0C02933B9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD27900-C47F-47E0-825C-FD59EE51A999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="132">
   <si>
     <t>Unit Cost</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/duracell-industrial-operations-inc/9V/21259959</t>
+  </si>
+  <si>
+    <t>Buttons (B3F-3152)</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1554,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -2789,6 +2792,34 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16a8de1b3ad07fcfe40131daee80152">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85720a748046338a72a4f25fe522aa39" ns2:_="" ns3:_="">
     <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
@@ -3037,35 +3068,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E5EB692-D7F8-4E14-B2F1-51BDE658334F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3082,23 +3104,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
-    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>